--- a/KGH-fileList.xlsx
+++ b/KGH-fileList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\KUMIO-Protocol-Analysis-Project-Management-WebSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC2851D-E44A-49E6-948F-B17632AE4CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC09511-3DAE-483E-BDE9-DCE0871896A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{55EF4403-E1A4-49DD-96BB-25271CCC22E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,48 @@
   </si>
   <si>
     <t>Oldukça eski ve tarihi bir yapının içinde geçen çok keyifli bir gezi. Burayı tanımlamak istesem sanırım benim için daha çok savaşı anımsatan bir kale, bir sur yapısı olacak. Şu ana kadar girdiğim mekanlarda gördüğüm çeşitli ahşap kutular veya interaktif karakterler bana o mekanın yaşama hissiyatını daha iyi aktardı. Girdiğim mekanlarda o zaman nasıl bir yaşam olduğunu daha iyi anlamamızı sağladı. Onun dışında gezdiğim yerler, çeşitli kuleler, Altınkapı, Küçük Altınkapı, kuzey - güney pilonlar, merkezdeki mescit, [GR] bunun dışında kuleler, Kanlı Kule idi sanırım bir tanesi. [N] Kanlı Kule en çok aklımda kalan kule. [N] Etrafı kapatılmış kule en çok aklımda kalan yapılarda. Genel olarak böyle keyifli bir deneyimdi.</t>
+  </si>
+  <si>
+    <t>KGH_14</t>
+  </si>
+  <si>
+    <t>KGH_15</t>
+  </si>
+  <si>
+    <t>KGH_16</t>
+  </si>
+  <si>
+    <t>KGH_17</t>
+  </si>
+  <si>
+    <t>KGH_18</t>
+  </si>
+  <si>
+    <t>KGH_19</t>
+  </si>
+  <si>
+    <t>KGH_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">şimdi.. Kitabeler Kulesi'nin oradan girişten girdik.Bize Kuleler anlatıldı.. Akabinde neler yaptık.. o kadar çok dediğim gibi aletle uğraştığımız için.. aaaaa.. şu ana yoldan gittik ama hatırlamıyorum ismini.. bu altın kapının oraya vardık.. orada… ondan önce oradaki kuleye çıktık.. işte bu Genç Osman’ın öldüğü odayı gördük özellikle onu hatırlıyorum.. biraz tarihçesi anlatıldı onları hatırlıyorum. Içerisinin mahalle olarak kullanıldığı hatta solunda da o şeyi gördüğümüzü hatırlıyorum çünkü o görselde.. mekanların içlerine girdiğimizde böyle yeniçerilerdir.. hazinelerdir.. ya da kedidir.. kuştur.. görseller daha etkin oldu.. onları hatırlıyorum.. bu kadar.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Öncelikle teşekkür ederim bana farklı bir bakış açısı sundupunuz için bu kompleksle alakalı.. Romadan günümüze kadar gelmiş yani tarihten günümüze kadar gelmiş bir yapı kompleksi oluyor.. Kuleleri gezdik.. Tüm bunları yaparken de bir yandan gözlük yardımıyla bilgilendirme aldık. Genel giriş kapısından sonra tek tek diğer kulelerle alakalı fikir sahibi olduk. Eeeee.. işte farklı kulelerle ilgili içinde ne tür işlevler olduğu.. işte bir takım yangınlar geçirdği.. işte neleri kaybettiği.. ,içinde daha öncesinde ne tür yaşanmışlıklar olduğu ile ilgili canlandırmalar izleyerek bize bilgi verdi bu gözlük.. yeni bir teknolojinin aslında tarihle bir araya gelmesi.. ben tarif edecek olsaydım.. yani günümüze bir şeylerin aktarılması.. ve aynı zamanda oradaki yaşanmışlığın da izleriyle birlikte yaşatılması ile birlikte bir olumlu girişim olduğunu düşünüyorum bu tarz teknolojilerin.. çünkü bir çok bilgiyi kitaplarda başka yerlerden bulabiliyoruz okuyabiliyoruz ama..  yaşama hissini mekanla bütünleştirebilmenin yolu aslında bir yerde bununla alakalı bir takım işte hologromlar.. yaşanmışlıklar katıp orayı birebir mekanın içerisinde yaşatmakla alakalı olduğunu düşünüyorum.. bu kıymetli bir deneyimdi.. mekan benim için nasıl derseniz.. içinde işte geçmişten günümüze bir çok işlevi barındırıyor.. yani çok kamusal işlevlerin de olduğu.. vahşetin de olduğu.. bir çok farkı şeyin farklı duygunun bir arada yaşandığı.. hatta eğitim mekanı olarak da kullanılmış. Bir yapı kompleksi.. farklı kuelerde faklı şeyler olmuş.. farklı zaman dilimlerinde de olmuş.. bu bana birazcık katmanlaşmayı hatırlattı.. zamanda katmanlaşma.. belki işte deneyimde katmanlaşma vs gibi düşünülebilir.. yapıların ölümsüzlüğünü bize gösteriyor.. kalıcılığını gösteriyor.. işte insanların faniliğini gösteriyor.. işte bir yerde mesela Genç Osman öldürülmüş bir ya da.. ya da öyle düşünülüyor en azından..başka bir yerde bir kuyu var.. idam edilen kişilerin kafalarının atıldığı denize kadar ulaşan Kanlı kuyu vs.. bütün bunlar aslında insanların yaptığı iyi kötü eylemlerin de bir araya geliği.. bir sürü çarpışmanın olduğu bir yapı kompleksi.. açık alanı var.. kapalı alanları var.. manzara noktaları var.. doğa ile bütünleşik noktaları var.. işte kapalı alanlarda yine doğa ile insanı aslında penceresi bile olmadığı için çok kesintiye uğratan yerler var.. bu nedenle bir sürü böyle deneyim bir sürü farklı his.. benim için nasıl diyeyim çok beklemediğim de aslında bir şey uyandırdı.. bu yapıyla alakalı bu komplekse alakalı merak uyandurdı.. o yüzden ben de araştırmaya devam edeceğimi düşünüyorum. </t>
+  </si>
+  <si>
+    <t>Tamam. Şu kısım giriş kapısı. Giriş kapısının sol tarafında kitabeler ve Topçu Kulesi vardı. Burada yabancı mahkûmların, gayrimüslim mahkûmların hapsedildiği kısım, etrafında orada kalan mahkûmların yazdığı bazı kitabeler olduğu için ismi Kitabeler Kulesi oluyor. İç kısmı bir yangından dolayı çökmüş durumda. Bu kadar. Güney pilon ve Kuzey pilon, burası da Altınkapı’nın içinden geçtiğimiz Altınkapı’nın iki tarafında bulunuyor. Burası Edirne'ye kadar uzanan bir yol. Hükümdarlar bu en büyük kapıdan geçiyorlardı. Onun etrafına gelenler de bu yanındaki iki küçük kapıdan geçiyorlardı. Bu sol tarafındaki kanlı kuyu işte mahkûmların kafalarının kesilip atıldığı kuyu. Kuzey pilon da.. Bu Altınkapı’nın üst kısmında da Genç Osman'ın öldürüldüğü oda var. Kuzey pilonunda da yanlış hatırlamıyorsam Müslüman Türk mahkumların kaldığı kısımdı. Bu mescit İstanbul'da yapılan ilk mescitlerden bir tanesi. Bir de bu kısım var. Bu kısımdan da avlu tamamen görülebiliyor ve burada bu kulenin önünde hayvan kesiyorlarmış önceden, bu kadar hatırlıyorum.</t>
+  </si>
+  <si>
+    <t>Tabii, ilk başta girişten başladık. Zaten bütün kuleleri gezdik, tek tek kuleleri gezdikten sonra Altınkapı'ya geçip oradan terastan gezdiğimiz her yere tekrar bakma fırsatı buldum. Dediğim gibi girişten başladık ve bir yer gördük ve o an deneyim olduğu için yani anlatıcı çok detaylı anlattığından aslında hiç gezerken kendim gösterip fark etmeyceğim şeyler fark ettim. En basitinden girişte sadece girme eylemi yapıyorduk ama orada odalardan bahsettiği için odalara yönlendim ve anlatıcıyla beraber yanımdaki arkadaşımın da yönlendirmeleriyle aslında biraz daha vakit harcayarak gezme yaptık. İşte dikkatimizi çeken şeylere yönelmek gibi gözlüğün de etkisiyle aslında o fark etmediğimiz geçmişe dair şeylere odaklandım mesela o yeniçerilerin nerelerde nöbet tuttuğu ya da geçmişte yaşanmış bazı olaylar odağında yani tek başıma geziyor olsaydım düşünmezdim diye düşünüyorum. Tek tek kulelerin anlamlarına baktık aslında yani neden Hazine Kulesi deniyor şeklinde bir anlatı oldu zaten oradaki görseller de bunu eğlenceli ve akılda kalıcı yaptı. Yani turu bitirdikten sonra oranın Hazine Kulesi olduğunu çok net biliyordum. Oradaki görseller bence kafama kazınmış gibiydi. Zaten birbirlerine yakınlıklarına göre gezmek de aslında bence faydalı bir rotaydı. Aslında şeyi düşünmüştüm, devam etseydik acaba sağa doğru diye böyle çizim yaparken fark ettim aslında kule kule devam ettiğim zaman aklımda kalmasını sağlamış çünkü anlamlarını tek tek karşılaştırarak görmek de aklımda kalmasını sağlamıştı. Böyle.</t>
+  </si>
+  <si>
+    <t>Tabii ki, ilk önce görünüş olarak anlatırdım. Daha sonrasında tarihini anlatırdım. Taş yapıda olduğunu ve Doğu Roma'dan beri günümüze kadar geldiğini anlatırdım. Daha sonrasında belli başlı kuleleri anlatırdım. Bunlar Topçu Kulesi, Hazine Kulesi gibi yani gezdiğim yerleri anlatırdım. Etkilendiğim yerleri söylerim mesela biri oraya gittiği zaman dikkatlice bakması için Genç Osman'ın öldürüldüğü rivayet edilen yeri anlatırdım. Daha sonrasında Kanlı Kuyu'yu anlatırdım ki daha da oradan daha da böyle etkilensin. O şekilde söylerdim onun için.</t>
+  </si>
+  <si>
+    <t>Tamam. Öncelikle iki parçalı bir yapı kafamda algıladım. Bir kısım Bizans olan kısımlar zaten yapı malzemesi ve tekniğinden de anlaşılıyor. Bir kısmı da daha... Osmanlı yapımı yapılar, bir de ortada mescit var; avluyu baya bölüyor. Şu an mesela algılamakta güçlük çekiyorum. Keza zeminler gene etkili, özellikle Bizans yapı tarafında birtakım tarihi zeminler var, diğer taraflarda peyzaj düzenlemesi , br yönlendiricilik ya da akılda kalıcılık yok. Onun haricinde anıt ağaç gene, girişteki anıt ağaç oldukça belirleyici bir şey onu söyleyebilirim. Mekanları ben sadece sur olarak dışarıdan algılamıştım ama içinde aslında mekan olduğunu da gördük. Yani buraya içinde.. şuradan gördük belki, içlerde mekalar var, gene döşeme çizgileri çok belli oluyor deliklerden. Farklı kotlarda bu mekanı çalıştırabiliyor gibi algılıyorum. Keza duvarlardaki katmanlaşmalar yine farklı düzeylerdeki yüksekliklerdeki kemerlerden algılanabiliyor.  Tabii genel olarak restorasyonu hani zayıf buldum, 5 üzerinden 2 falan, biraz daha çalışılması lazım diye düşünüyorum özellikle hem zemin peyzajı hem de duvarlarla ilgili.  Bunları söyleyebilirim, gene sizin anlatımınızdaki, deneyimdeki şematik anlatım olsun, genelde tematik bir analtı vardı. O tematik anlatımı da takip edebildim. Böyle, bunları cevap vereyim şimdilik.</t>
+  </si>
+  <si>
+    <t>Güzel bir deneyimdi benim için. Öncelikle tarihi bir alanı böyle bir deneyimle gezmek daha farklı bir hissiyatı. Burada kuleleri gezdik, iki tane kulenin içine girdik. Ondan sonra zindanların üstüne çıktık. En üst noktayı gördük. Genç Osman'ın katledildiği odaya girdik. Altın kapıyı gezdik. Aslında burada şu anda bulunduğumuz yeri %80 %90 oranında gezmiş olduk. Bunu bu teknolojiyle beraber yapmak değişik bir farklı bir deneyimdi benim için. Orada arkadan rehberin anlatımı çok keyifliydi En azından bulunduğumuz yerin neresi olduğunu, tarihte neler yaşanmış olduğunu daha net orada hissetmiş, deneyimlemiş olduk. Sadece görüntünün gerçekliği ve senkronizasyonunda biraz daha arttırılması gereken noktalar olduğunu düşünüyorum ve görüntünün parlaklığı da biraz arttırılması gerekiyor bence. Ama bu teknoloji geliştirilirse bence özellikle böyle alanları gezmek çok keyifli hale gelecektir.</t>
   </si>
 </sst>
 </file>
@@ -472,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8BE8-7532-49E9-9C69-99A017372AC8}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,13 +542,16 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -522,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -530,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -554,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,7 +631,60 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
